--- a/output_frameETH.xlsx
+++ b/output_frameETH.xlsx
@@ -25,10 +25,10 @@
     <t>Okcoin_ETH</t>
   </si>
   <si>
+    <t>Bitfinex_ETH</t>
+  </si>
+  <si>
     <t>Bitstamp_ETH</t>
-  </si>
-  <si>
-    <t>Bitfinex_ETH</t>
   </si>
   <si>
     <t>Bithumb_ETH</t>
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>269.04360635</v>
+        <v>188.476288</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -412,10 +412,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>301.9</v>
+        <v>214.29</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1221229305380962</v>
+        <v>0.1369599978539475</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -423,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>302.67</v>
+        <v>214.96</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1249849201257558</v>
+        <v>0.1405148216840943</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -434,10 +434,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>304.66125</v>
+        <v>215.1435</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1323861367055303</v>
+        <v>0.1414884189569778</v>
       </c>
     </row>
   </sheetData>
